--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Plau-Igf2r.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Plau-Igf2r.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>19.434592</v>
+        <v>15.44975366666667</v>
       </c>
       <c r="H2">
-        <v>58.303776</v>
+        <v>46.349261</v>
       </c>
       <c r="I2">
-        <v>0.1244167820899015</v>
+        <v>0.1287486886000874</v>
       </c>
       <c r="J2">
-        <v>0.1244167820899015</v>
+        <v>0.1287486886000874</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>30.81388166666666</v>
+        <v>35.82261933333334</v>
       </c>
       <c r="N2">
-        <v>92.44164499999999</v>
+        <v>107.467858</v>
       </c>
       <c r="O2">
-        <v>0.1674303154124352</v>
+        <v>0.1784748100644408</v>
       </c>
       <c r="P2">
-        <v>0.1674303154124352</v>
+        <v>0.1784748100644408</v>
       </c>
       <c r="Q2">
-        <v>598.8552181279466</v>
+        <v>553.450644394771</v>
       </c>
       <c r="R2">
-        <v>5389.696963151519</v>
+        <v>4981.055799552938</v>
       </c>
       <c r="S2">
-        <v>0.02083114106791243</v>
+        <v>0.02297839774394644</v>
       </c>
       <c r="T2">
-        <v>0.02083114106791243</v>
+        <v>0.02297839774394644</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>19.434592</v>
+        <v>15.44975366666667</v>
       </c>
       <c r="H3">
-        <v>58.303776</v>
+        <v>46.349261</v>
       </c>
       <c r="I3">
-        <v>0.1244167820899015</v>
+        <v>0.1287486886000874</v>
       </c>
       <c r="J3">
-        <v>0.1244167820899015</v>
+        <v>0.1287486886000874</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>248.191292</v>
       </c>
       <c r="O3">
-        <v>0.4495240895180933</v>
+        <v>0.4121780644343741</v>
       </c>
       <c r="P3">
-        <v>0.4495240895180933</v>
+        <v>0.4121780644343741</v>
       </c>
       <c r="Q3">
-        <v>1607.832165990955</v>
+        <v>1278.164774537246</v>
       </c>
       <c r="R3">
-        <v>14470.48949391859</v>
+        <v>11503.48297083521</v>
       </c>
       <c r="S3">
-        <v>0.05592834068973399</v>
+        <v>0.053067385265648</v>
       </c>
       <c r="T3">
-        <v>0.05592834068973401</v>
+        <v>0.05306738526564799</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>19.434592</v>
+        <v>15.44975366666667</v>
       </c>
       <c r="H4">
-        <v>58.303776</v>
+        <v>46.349261</v>
       </c>
       <c r="I4">
-        <v>0.1244167820899015</v>
+        <v>0.1287486886000874</v>
       </c>
       <c r="J4">
-        <v>0.1244167820899015</v>
+        <v>0.1287486886000874</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>61.624648</v>
+        <v>73.74809799999998</v>
       </c>
       <c r="N4">
-        <v>184.873944</v>
+        <v>221.244294</v>
       </c>
       <c r="O4">
-        <v>0.3348437033488628</v>
+        <v>0.3674264480966141</v>
       </c>
       <c r="P4">
-        <v>0.3348437033488627</v>
+        <v>0.3674264480966141</v>
       </c>
       <c r="Q4">
-        <v>1197.649891023616</v>
+        <v>1139.389947485192</v>
       </c>
       <c r="R4">
-        <v>10778.84901921254</v>
+        <v>10254.50952736673</v>
       </c>
       <c r="S4">
-        <v>0.04166017607373108</v>
+        <v>0.04730567334942715</v>
       </c>
       <c r="T4">
-        <v>0.04166017607373108</v>
+        <v>0.04730567334942715</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>19.434592</v>
+        <v>15.44975366666667</v>
       </c>
       <c r="H5">
-        <v>58.303776</v>
+        <v>46.349261</v>
       </c>
       <c r="I5">
-        <v>0.1244167820899015</v>
+        <v>0.1287486886000874</v>
       </c>
       <c r="J5">
-        <v>0.1244167820899015</v>
+        <v>0.1287486886000874</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.871077999999999</v>
+        <v>8.41412</v>
       </c>
       <c r="N5">
-        <v>26.613234</v>
+        <v>25.24236</v>
       </c>
       <c r="O5">
-        <v>0.04820189172060865</v>
+        <v>0.04192067740457094</v>
       </c>
       <c r="P5">
-        <v>0.04820189172060865</v>
+        <v>0.04192067740457094</v>
       </c>
       <c r="Q5">
-        <v>172.405781530176</v>
+        <v>129.9960813217733</v>
       </c>
       <c r="R5">
-        <v>1551.652033771584</v>
+        <v>1169.96473189596</v>
       </c>
       <c r="S5">
-        <v>0.005997124258523994</v>
+        <v>0.005397232241065825</v>
       </c>
       <c r="T5">
-        <v>0.005997124258523996</v>
+        <v>0.005397232241065824</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>146.675835</v>
       </c>
       <c r="I6">
-        <v>0.3129974875220664</v>
+        <v>0.4074352211478151</v>
       </c>
       <c r="J6">
-        <v>0.3129974875220664</v>
+        <v>0.4074352211478151</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>30.81388166666666</v>
+        <v>35.82261933333334</v>
       </c>
       <c r="N6">
-        <v>92.44164499999999</v>
+        <v>107.467858</v>
       </c>
       <c r="O6">
-        <v>0.1674303154124352</v>
+        <v>0.1784748100644408</v>
       </c>
       <c r="P6">
-        <v>0.1674303154124352</v>
+        <v>0.1784748100644408</v>
       </c>
       <c r="Q6">
-        <v>1506.550607683175</v>
+        <v>1751.43753420127</v>
       </c>
       <c r="R6">
-        <v>13558.95546914858</v>
+        <v>15762.93780781143</v>
       </c>
       <c r="S6">
-        <v>0.05240526805911932</v>
+        <v>0.07271692370791974</v>
       </c>
       <c r="T6">
-        <v>0.05240526805911932</v>
+        <v>0.07271692370791974</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>146.675835</v>
       </c>
       <c r="I7">
-        <v>0.3129974875220664</v>
+        <v>0.4074352211478151</v>
       </c>
       <c r="J7">
-        <v>0.3129974875220664</v>
+        <v>0.4074352211478151</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>248.191292</v>
       </c>
       <c r="O7">
-        <v>0.4495240895180933</v>
+        <v>0.4121780644343741</v>
       </c>
       <c r="P7">
-        <v>0.4495240895180933</v>
+        <v>0.4121780644343741</v>
       </c>
       <c r="Q7">
         <v>4044.85166598098</v>
@@ -883,10 +883,10 @@
         <v>36403.66499382882</v>
       </c>
       <c r="S7">
-        <v>0.1406999105998077</v>
+        <v>0.1679358608350976</v>
       </c>
       <c r="T7">
-        <v>0.1406999105998077</v>
+        <v>0.1679358608350976</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>146.675835</v>
       </c>
       <c r="I8">
-        <v>0.3129974875220664</v>
+        <v>0.4074352211478151</v>
       </c>
       <c r="J8">
-        <v>0.3129974875220664</v>
+        <v>0.4074352211478151</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>61.624648</v>
+        <v>73.74809799999998</v>
       </c>
       <c r="N8">
-        <v>184.873944</v>
+        <v>221.244294</v>
       </c>
       <c r="O8">
-        <v>0.3348437033488628</v>
+        <v>0.3674264480966141</v>
       </c>
       <c r="P8">
-        <v>0.3348437033488627</v>
+        <v>0.3674264480966141</v>
       </c>
       <c r="Q8">
-        <v>3012.94890066036</v>
+        <v>3605.687951270609</v>
       </c>
       <c r="R8">
-        <v>27116.54010594324</v>
+        <v>32451.19156143549</v>
       </c>
       <c r="S8">
-        <v>0.1048052378607782</v>
+        <v>0.1497024761358002</v>
       </c>
       <c r="T8">
-        <v>0.1048052378607781</v>
+        <v>0.1497024761358002</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>146.675835</v>
       </c>
       <c r="I9">
-        <v>0.3129974875220664</v>
+        <v>0.4074352211478151</v>
       </c>
       <c r="J9">
-        <v>0.3129974875220664</v>
+        <v>0.4074352211478151</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.871077999999999</v>
+        <v>8.41412</v>
       </c>
       <c r="N9">
-        <v>26.613234</v>
+        <v>25.24236</v>
       </c>
       <c r="O9">
-        <v>0.04820189172060865</v>
+        <v>0.04192067740457094</v>
       </c>
       <c r="P9">
-        <v>0.04820189172060865</v>
+        <v>0.04192067740457094</v>
       </c>
       <c r="Q9">
-        <v>433.7242576667099</v>
+        <v>411.3826922634</v>
       </c>
       <c r="R9">
-        <v>3903.51831900039</v>
+        <v>3702.444230370601</v>
       </c>
       <c r="S9">
-        <v>0.0150870710023612</v>
+        <v>0.01707996046899758</v>
       </c>
       <c r="T9">
-        <v>0.0150870710023612</v>
+        <v>0.01707996046899758</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>22.685484</v>
+        <v>24.32144666666666</v>
       </c>
       <c r="H10">
-        <v>68.05645200000001</v>
+        <v>72.96433999999999</v>
       </c>
       <c r="I10">
-        <v>0.1452284112489703</v>
+        <v>0.2026798893205849</v>
       </c>
       <c r="J10">
-        <v>0.1452284112489703</v>
+        <v>0.2026798893205849</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>30.81388166666666</v>
+        <v>35.82261933333334</v>
       </c>
       <c r="N10">
-        <v>92.44164499999999</v>
+        <v>107.467858</v>
       </c>
       <c r="O10">
-        <v>0.1674303154124352</v>
+        <v>0.1784748100644408</v>
       </c>
       <c r="P10">
-        <v>0.1674303154124352</v>
+        <v>0.1784748100644408</v>
       </c>
       <c r="Q10">
-        <v>699.02781952706</v>
+        <v>871.2579255759688</v>
       </c>
       <c r="R10">
-        <v>6291.250375743541</v>
+        <v>7841.32133018372</v>
       </c>
       <c r="S10">
-        <v>0.02431563870226195</v>
+        <v>0.03617325475037327</v>
       </c>
       <c r="T10">
-        <v>0.02431563870226195</v>
+        <v>0.03617325475037327</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>22.685484</v>
+        <v>24.32144666666666</v>
       </c>
       <c r="H11">
-        <v>68.05645200000001</v>
+        <v>72.96433999999999</v>
       </c>
       <c r="I11">
-        <v>0.1452284112489703</v>
+        <v>0.2026798893205849</v>
       </c>
       <c r="J11">
-        <v>0.1452284112489703</v>
+        <v>0.2026798893205849</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>248.191292</v>
       </c>
       <c r="O11">
-        <v>0.4495240895180933</v>
+        <v>0.4121780644343741</v>
       </c>
       <c r="P11">
-        <v>0.4495240895180933</v>
+        <v>0.4121780644343741</v>
       </c>
       <c r="Q11">
-        <v>1876.779861201776</v>
+        <v>2012.123757169697</v>
       </c>
       <c r="R11">
-        <v>16891.01875081599</v>
+        <v>18109.11381452728</v>
       </c>
       <c r="S11">
-        <v>0.06528366933885259</v>
+        <v>0.08354020447993184</v>
       </c>
       <c r="T11">
-        <v>0.06528366933885259</v>
+        <v>0.08354020447993184</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>22.685484</v>
+        <v>24.32144666666666</v>
       </c>
       <c r="H12">
-        <v>68.05645200000001</v>
+        <v>72.96433999999999</v>
       </c>
       <c r="I12">
-        <v>0.1452284112489703</v>
+        <v>0.2026798893205849</v>
       </c>
       <c r="J12">
-        <v>0.1452284112489703</v>
+        <v>0.2026798893205849</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>61.624648</v>
+        <v>73.74809799999998</v>
       </c>
       <c r="N12">
-        <v>184.873944</v>
+        <v>221.244294</v>
       </c>
       <c r="O12">
-        <v>0.3348437033488628</v>
+        <v>0.3674264480966141</v>
       </c>
       <c r="P12">
-        <v>0.3348437033488627</v>
+        <v>0.3674264480966141</v>
       </c>
       <c r="Q12">
-        <v>1397.984966209632</v>
+        <v>1793.660432275106</v>
       </c>
       <c r="R12">
-        <v>12581.86469588669</v>
+        <v>16142.94389047596</v>
       </c>
       <c r="S12">
-        <v>0.04862881905407685</v>
+        <v>0.07446995183367737</v>
       </c>
       <c r="T12">
-        <v>0.04862881905407684</v>
+        <v>0.07446995183367737</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>22.685484</v>
+        <v>24.32144666666666</v>
       </c>
       <c r="H13">
-        <v>68.05645200000001</v>
+        <v>72.96433999999999</v>
       </c>
       <c r="I13">
-        <v>0.1452284112489703</v>
+        <v>0.2026798893205849</v>
       </c>
       <c r="J13">
-        <v>0.1452284112489703</v>
+        <v>0.2026798893205849</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>8.871077999999999</v>
+        <v>8.41412</v>
       </c>
       <c r="N13">
-        <v>26.613234</v>
+        <v>25.24236</v>
       </c>
       <c r="O13">
-        <v>0.04820189172060865</v>
+        <v>0.04192067740457094</v>
       </c>
       <c r="P13">
-        <v>0.04820189172060865</v>
+        <v>0.04192067740457094</v>
       </c>
       <c r="Q13">
-        <v>201.244698031752</v>
+        <v>204.6435708269333</v>
       </c>
       <c r="R13">
-        <v>1811.202282285768</v>
+        <v>1841.7921374424</v>
       </c>
       <c r="S13">
-        <v>0.00700028415377889</v>
+        <v>0.008496478256602382</v>
       </c>
       <c r="T13">
-        <v>0.00700028415377889</v>
+        <v>0.008496478256602382</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>65.19353</v>
+        <v>31.33616366666666</v>
       </c>
       <c r="H14">
-        <v>195.58059</v>
+        <v>94.00849099999999</v>
       </c>
       <c r="I14">
-        <v>0.4173573191390618</v>
+        <v>0.2611362009315126</v>
       </c>
       <c r="J14">
-        <v>0.4173573191390618</v>
+        <v>0.2611362009315126</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>30.81388166666666</v>
+        <v>35.82261933333334</v>
       </c>
       <c r="N14">
-        <v>92.44164499999999</v>
+        <v>107.467858</v>
       </c>
       <c r="O14">
-        <v>0.1674303154124352</v>
+        <v>0.1784748100644408</v>
       </c>
       <c r="P14">
-        <v>0.1674303154124352</v>
+        <v>0.1784748100644408</v>
       </c>
       <c r="Q14">
-        <v>2008.865718852283</v>
+        <v>1122.543462398031</v>
       </c>
       <c r="R14">
-        <v>18079.79146967054</v>
+        <v>10102.89116158228</v>
       </c>
       <c r="S14">
-        <v>0.06987826758314149</v>
+        <v>0.04660623386220136</v>
       </c>
       <c r="T14">
-        <v>0.06987826758314149</v>
+        <v>0.04660623386220136</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>65.19353</v>
+        <v>31.33616366666666</v>
       </c>
       <c r="H15">
-        <v>195.58059</v>
+        <v>94.00849099999999</v>
       </c>
       <c r="I15">
-        <v>0.4173573191390618</v>
+        <v>0.2611362009315126</v>
       </c>
       <c r="J15">
-        <v>0.4173573191390618</v>
+        <v>0.2611362009315126</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>248.191292</v>
       </c>
       <c r="O15">
-        <v>0.4495240895180933</v>
+        <v>0.4121780644343741</v>
       </c>
       <c r="P15">
-        <v>0.4495240895180933</v>
+        <v>0.4121780644343741</v>
       </c>
       <c r="Q15">
-        <v>5393.488813580253</v>
+        <v>2592.454315584485</v>
       </c>
       <c r="R15">
-        <v>48541.39932222227</v>
+        <v>23332.08884026037</v>
       </c>
       <c r="S15">
-        <v>0.187612168889699</v>
+        <v>0.1076346138536967</v>
       </c>
       <c r="T15">
-        <v>0.187612168889699</v>
+        <v>0.1076346138536967</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>65.19353</v>
+        <v>31.33616366666666</v>
       </c>
       <c r="H16">
-        <v>195.58059</v>
+        <v>94.00849099999999</v>
       </c>
       <c r="I16">
-        <v>0.4173573191390618</v>
+        <v>0.2611362009315126</v>
       </c>
       <c r="J16">
-        <v>0.4173573191390618</v>
+        <v>0.2611362009315126</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>61.624648</v>
+        <v>73.74809799999998</v>
       </c>
       <c r="N16">
-        <v>184.873944</v>
+        <v>221.244294</v>
       </c>
       <c r="O16">
-        <v>0.3348437033488628</v>
+        <v>0.3674264480966141</v>
       </c>
       <c r="P16">
-        <v>0.3348437033488627</v>
+        <v>0.3674264480966141</v>
       </c>
       <c r="Q16">
-        <v>4017.52833812744</v>
+        <v>2310.982469033372</v>
       </c>
       <c r="R16">
-        <v>36157.75504314696</v>
+        <v>20798.84222130035</v>
       </c>
       <c r="S16">
-        <v>0.1397494703602766</v>
+        <v>0.0959483467777094</v>
       </c>
       <c r="T16">
-        <v>0.1397494703602766</v>
+        <v>0.0959483467777094</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>65.19353</v>
+        <v>31.33616366666666</v>
       </c>
       <c r="H17">
-        <v>195.58059</v>
+        <v>94.00849099999999</v>
       </c>
       <c r="I17">
-        <v>0.4173573191390618</v>
+        <v>0.2611362009315126</v>
       </c>
       <c r="J17">
-        <v>0.4173573191390618</v>
+        <v>0.2611362009315126</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>8.871077999999999</v>
+        <v>8.41412</v>
       </c>
       <c r="N17">
-        <v>26.613234</v>
+        <v>25.24236</v>
       </c>
       <c r="O17">
-        <v>0.04820189172060865</v>
+        <v>0.04192067740457094</v>
       </c>
       <c r="P17">
-        <v>0.04820189172060865</v>
+        <v>0.04192067740457094</v>
       </c>
       <c r="Q17">
-        <v>578.3368897253399</v>
+        <v>263.6662414309733</v>
       </c>
       <c r="R17">
-        <v>5205.032007528059</v>
+        <v>2372.99617287876</v>
       </c>
       <c r="S17">
-        <v>0.02011741230594457</v>
+        <v>0.01094700643790516</v>
       </c>
       <c r="T17">
-        <v>0.02011741230594457</v>
+        <v>0.01094700643790516</v>
       </c>
     </row>
   </sheetData>
